--- a/Gráficos_bolsa_família.xlsx
+++ b/Gráficos_bolsa_família.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto_bd_bolsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189785C1-442B-4F30-AD62-D6303F507843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CDF777-CE55-4546-BD20-3CE54E5AE1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{48A7AEE2-8DDE-4EE9-912F-8A99CBD7A56B}"/>
   </bookViews>
@@ -16184,9 +16184,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -16202,6 +16199,9 @@
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -18405,7 +18405,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> RECEBERPAGAMENTOS DO AM BOLSA FAMÍLIA</a:t>
+              <a:t> RECEBERPAGAMENTOS DO BOLSA FAMÍLIA</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -18528,6 +18528,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -18548,6 +18553,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -18568,6 +18578,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -18588,6 +18603,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -18608,6 +18628,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -18628,6 +18653,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -18650,6 +18680,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -18672,6 +18707,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -18694,6 +18734,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -18716,6 +18761,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-03BF-45C7-A704-3E9C4DF3CE53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -18763,7 +18813,7 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -18906,7 +18956,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -22193,7 +22243,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{459BA358-50DB-4065-BA3B-B482AE869FB3}" name="MUNICIPIO"/>
     <tableColumn id="2" xr3:uid="{DAFB67A2-F0D8-4403-881F-ACEEC9148FBE}" name="UF"/>
-    <tableColumn id="3" xr3:uid="{E8A7D0E9-2435-4AE7-B4CD-DF222888CE85}" name="TOTAL DE PAGAMENTOS REALIZADOS" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E8A7D0E9-2435-4AE7-B4CD-DF222888CE85}" name="TOTAL DE PAGAMENTOS REALIZADOS" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22204,18 +22254,18 @@
   <autoFilter ref="B7:C10" xr:uid="{285A5E20-551B-4D39-B6AC-5C8DAAC4CE59}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0FEC614C-25BE-44BA-888D-8680AFE0A07C}" name="MUNICIPIO"/>
-    <tableColumn id="2" xr3:uid="{B505F447-A8FE-40AF-8361-9A38D6AF7871}" name="TOTAL BENEFICIÁRIO" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{B505F447-A8FE-40AF-8361-9A38D6AF7871}" name="TOTAL BENEFICIÁRIO" dataDxfId="4" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EEB8A63A-EFAE-4A4A-BAE2-6023AAA5D720}" name="Tabela6" displayName="Tabela6" ref="B9:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EEB8A63A-EFAE-4A4A-BAE2-6023AAA5D720}" name="Tabela6" displayName="Tabela6" ref="B9:C12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B9:C12" xr:uid="{EEB8A63A-EFAE-4A4A-BAE2-6023AAA5D720}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CE4B3CA7-8176-48F8-B859-FF31E7F51121}" name="CIDADES" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{61BB6C4D-0AA4-4339-8B53-C50C4402D489}" name="TOTAL DE PAGAMENTOS REALIZADOS" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CE4B3CA7-8176-48F8-B859-FF31E7F51121}" name="CIDADES" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{61BB6C4D-0AA4-4339-8B53-C50C4402D489}" name="TOTAL DE PAGAMENTOS REALIZADOS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22804,7 +22854,7 @@
   <dimension ref="B1:D5571"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
